--- a/xlsx/C1-测试.xlsx
+++ b/xlsx/C1-测试.xlsx
@@ -3,10 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Obj-user" sheetId="1" r:id="rId1"/>
-    <sheet name="Tbl-city" sheetId="2" r:id="rId2"/>
-    <sheet name="Tbl-food" sheetId="3" r:id="rId3"/>
-    <sheet name="Enum-language" sheetId="4" r:id="rId4"/>
+    <sheet name="user" sheetId="1" r:id="rId1"/>
+    <sheet name="city" sheetId="2" r:id="rId2"/>
+    <sheet name="food" sheetId="3" r:id="rId3"/>
+    <sheet name="language" sheetId="4" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -407,7 +407,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>测试表</v>
+        <v>##OBJ--用户表</v>
       </c>
     </row>
     <row r="2">
@@ -415,7 +415,7 @@
         <v>key</v>
       </c>
       <c r="B2" t="str">
-        <v>keyType</v>
+        <v>type</v>
       </c>
       <c r="C2" t="str">
         <v>value</v>
@@ -461,33 +461,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>测试lua数据表</v>
+        <v>##TBL--城市表</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>索引</v>
+        <v>id</v>
       </c>
       <c r="B2" t="str">
-        <v>城市名</v>
+        <v>cityName</v>
       </c>
       <c r="C2" t="str">
-        <v>省份</v>
+        <v>province</v>
       </c>
       <c r="D2" t="str">
-        <v>特产</v>
+        <v>food</v>
+      </c>
+      <c r="E2" t="str">
+        <v>regions</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>str</v>
+        <v>xid</v>
       </c>
       <c r="B3" t="str">
         <v>str</v>
@@ -498,19 +501,25 @@
       <c r="D3" t="str">
         <v>global::food</v>
       </c>
+      <c r="E3" t="str">
+        <v>list:str</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>xid</v>
+        <v>索引</v>
       </c>
       <c r="B4" t="str">
-        <v>cityName</v>
+        <v>城市名</v>
       </c>
       <c r="C4" t="str">
-        <v>province</v>
+        <v>省份</v>
       </c>
       <c r="D4" t="str">
-        <v>food</v>
+        <v>特产</v>
+      </c>
+      <c r="E4" t="str">
+        <v>行政区</v>
       </c>
     </row>
     <row r="5">
@@ -526,6 +535,9 @@
       <c r="D5" t="str">
         <v>1,2</v>
       </c>
+      <c r="E5" t="str">
+        <v>天河区,海珠区</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -540,10 +552,13 @@
       <c r="D6" t="str">
         <v>2</v>
       </c>
+      <c r="E6" t="str">
+        <v>西湖区,新建区</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -557,26 +572,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>内嵌表</v>
+        <v>##TBL--特产表</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>索引</v>
+        <v>id</v>
       </c>
       <c r="B2" t="str">
-        <v>食物名</v>
+        <v>name</v>
       </c>
       <c r="C2" t="str">
-        <v>类别</v>
+        <v>type</v>
       </c>
       <c r="D2" t="str">
-        <v>关联城市</v>
+        <v>city</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>num</v>
+        <v>xid</v>
       </c>
       <c r="B3" t="str">
         <v>str</v>
@@ -590,16 +605,16 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>xid</v>
+        <v>索引</v>
       </c>
       <c r="B4" t="str">
-        <v>name</v>
+        <v>食物名</v>
       </c>
       <c r="C4" t="str">
-        <v>type</v>
+        <v>类别</v>
       </c>
       <c r="D4" t="str">
-        <v>city</v>
+        <v>关联城市</v>
       </c>
     </row>
     <row r="5">
@@ -646,7 +661,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>测试lua枚举</v>
+        <v>##ENUM--语言表</v>
       </c>
     </row>
     <row r="2">

--- a/xlsx/C1-测试.xlsx
+++ b/xlsx/C1-测试.xlsx
@@ -1,49 +1,209 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\c#\xlsx-exporter\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2388B8A1-F2D8-48EF-97DD-10C443B84940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
     <sheet name="city" sheetId="2" r:id="rId2"/>
     <sheet name="food" sheetId="3" r:id="rId3"/>
     <sheet name="language" sheetId="4" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
+  <si>
+    <t>##OBJ--用户表</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>白泽</t>
+  </si>
+  <si>
+    <t>昵称</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>##TBL--城市表</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>cityName</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>regions</t>
+  </si>
+  <si>
+    <t>xid</t>
+  </si>
+  <si>
+    <t>global::food</t>
+  </si>
+  <si>
+    <t>list:str</t>
+  </si>
+  <si>
+    <t>索引</t>
+  </si>
+  <si>
+    <t>城市名</t>
+  </si>
+  <si>
+    <t>省份</t>
+  </si>
+  <si>
+    <t>特产</t>
+  </si>
+  <si>
+    <t>行政区</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>广州</t>
+  </si>
+  <si>
+    <t>广东</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>天河区,海珠区</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>南昌</t>
+  </si>
+  <si>
+    <t>江西</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>西湖区,新建区</t>
+  </si>
+  <si>
+    <t>##TBL--特产表</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>global::city</t>
+  </si>
+  <si>
+    <t>食物名</t>
+  </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>关联城市</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>煲仔饭</t>
+  </si>
+  <si>
+    <t>主食</t>
+  </si>
+  <si>
+    <t>脐橙</t>
+  </si>
+  <si>
+    <t>水果</t>
+  </si>
+  <si>
+    <t>##ENUM--语言表</t>
+  </si>
+  <si>
+    <t>ZN</t>
+  </si>
+  <si>
+    <t>中文</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -68,13 +228,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -399,307 +567,335 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="310" zoomScaleNormal="310" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>##OBJ--用户表</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>key</v>
-      </c>
-      <c r="B2" t="str">
-        <v>type</v>
-      </c>
-      <c r="C2" t="str">
-        <v>value</v>
-      </c>
-      <c r="D2" t="str">
-        <v>desc</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>name</v>
-      </c>
-      <c r="B3" t="str">
-        <v>str</v>
-      </c>
-      <c r="C3" t="str">
-        <v>白泽</v>
-      </c>
-      <c r="D3" t="str">
-        <v>昵称</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>age</v>
-      </c>
-      <c r="B4" t="str">
-        <v>num</v>
-      </c>
-      <c r="C4" t="str">
-        <v>20</v>
-      </c>
-      <c r="D4" t="str">
-        <v>年龄</v>
+    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError sqref="A1:D4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="310" zoomScaleNormal="310" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>##TBL--城市表</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>id</v>
-      </c>
-      <c r="B2" t="str">
-        <v>cityName</v>
-      </c>
-      <c r="C2" t="str">
-        <v>province</v>
-      </c>
-      <c r="D2" t="str">
-        <v>food</v>
-      </c>
-      <c r="E2" t="str">
-        <v>regions</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>xid</v>
-      </c>
-      <c r="B3" t="str">
-        <v>str</v>
-      </c>
-      <c r="C3" t="str">
-        <v>str</v>
-      </c>
-      <c r="D3" t="str">
-        <v>global::food</v>
-      </c>
-      <c r="E3" t="str">
-        <v>list:str</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>索引</v>
-      </c>
-      <c r="B4" t="str">
-        <v>城市名</v>
-      </c>
-      <c r="C4" t="str">
-        <v>省份</v>
-      </c>
-      <c r="D4" t="str">
-        <v>特产</v>
-      </c>
-      <c r="E4" t="str">
-        <v>行政区</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>t1</v>
-      </c>
-      <c r="B5" t="str">
-        <v>广州</v>
-      </c>
-      <c r="C5" t="str">
-        <v>广东</v>
-      </c>
-      <c r="D5" t="str">
-        <v>1,2</v>
-      </c>
-      <c r="E5" t="str">
-        <v>天河区,海珠区</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>t2</v>
-      </c>
-      <c r="B6" t="str">
-        <v>南昌</v>
-      </c>
-      <c r="C6" t="str">
-        <v>江西</v>
-      </c>
-      <c r="D6" t="str">
-        <v>2</v>
-      </c>
-      <c r="E6" t="str">
-        <v>西湖区,新建区</v>
+    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
+    <ignoredError sqref="A1:E6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="310" zoomScaleNormal="310" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="4" max="4" width="14.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>##TBL--特产表</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>id</v>
-      </c>
-      <c r="B2" t="str">
-        <v>name</v>
-      </c>
-      <c r="C2" t="str">
-        <v>type</v>
-      </c>
-      <c r="D2" t="str">
-        <v>city</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>xid</v>
-      </c>
-      <c r="B3" t="str">
-        <v>str</v>
-      </c>
-      <c r="C3" t="str">
-        <v>str</v>
-      </c>
-      <c r="D3" t="str">
-        <v>global::city</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>索引</v>
-      </c>
-      <c r="B4" t="str">
-        <v>食物名</v>
-      </c>
-      <c r="C4" t="str">
-        <v>类别</v>
-      </c>
-      <c r="D4" t="str">
-        <v>关联城市</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>1</v>
-      </c>
-      <c r="B5" t="str">
-        <v>煲仔饭</v>
-      </c>
-      <c r="C5" t="str">
-        <v>主食</v>
-      </c>
-      <c r="D5" t="str">
-        <v>t1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
+    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="str">
-        <v>脐橙</v>
-      </c>
-      <c r="C6" t="str">
-        <v>水果</v>
-      </c>
-      <c r="D6" t="str">
-        <v>t2</v>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D6"/>
+    <ignoredError sqref="A1:D6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="310" zoomScaleNormal="310" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>##ENUM--语言表</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>key</v>
-      </c>
-      <c r="B2" t="str">
-        <v>value</v>
-      </c>
-      <c r="C2" t="str">
-        <v>desc</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>ZN</v>
-      </c>
-      <c r="B3" t="str">
+    <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="str">
-        <v>中文</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>EN</v>
-      </c>
-      <c r="B4" t="str">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="str">
-        <v>英语</v>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
+    <ignoredError sqref="A1:C4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>